--- a/data/trans_camb/P38_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P38_R-Urba-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>M4/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>M4/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>M4/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>21,58</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,3</t>
+          <t>9,09</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>27,62</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>19,84</t>
+          <t>21,82</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>24,8</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>14,35</t>
+          <t>15,76</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,83; 29,64</t>
+          <t>-6,45; 13,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,65; 15,93</t>
+          <t>-4,09; 20,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20,02; 35,18</t>
+          <t>-6,63; 10,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,29; 29,75</t>
+          <t>12,4; 31,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,75; 30,42</t>
+          <t>-4,26; 8,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,7; 21,32</t>
+          <t>8,35; 23,2</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>98,86%</t>
+          <t>15,9%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>38,04%</t>
+          <t>42,95%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>124,27%</t>
+          <t>8,34%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>89,28%</t>
+          <t>108,93%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>112,49%</t>
+          <t>11,99%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>65,08%</t>
+          <t>76,68%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>46,28; 158,07</t>
+          <t>-23,81; 82,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,95; 90,35</t>
+          <t>-11,44; 122,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>74,36; 182,01</t>
+          <t>-27,13; 64,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>47,54; 149,99</t>
+          <t>48,88; 195,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>76,57; 155,29</t>
+          <t>-17,62; 49,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>36,98; 106,68</t>
+          <t>34,36; 130,82</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>15,47</t>
+          <t>-1,71</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,23</t>
+          <t>13,16</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>21,35</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13,09</t>
+          <t>14,76</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>18,33</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,61</t>
+          <t>14,01</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,22; 24,41</t>
+          <t>-10,6; 7,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 14,24</t>
+          <t>2,95; 22,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,53; 29,01</t>
+          <t>-6,14; 9,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,63; 21,48</t>
+          <t>4,87; 29,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,65; 24,52</t>
+          <t>-5,75; 5,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,72; 15,17</t>
+          <t>6,43; 21,66</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>109,12%</t>
+          <t>-12,24%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>43,93%</t>
+          <t>94,29%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>118,8%</t>
+          <t>14,25%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>72,84%</t>
+          <t>114,47%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>113,35%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>59,42%</t>
+          <t>104,7%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>39,84; 213,97</t>
+          <t>-57,21; 77,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 128,17</t>
+          <t>15,65; 244,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>62,97; 203,14</t>
+          <t>-39,39; 99,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24,35; 143,33</t>
+          <t>22,21; 302,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>61,55; 179,95</t>
+          <t>-37,36; 53,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,06; 111,87</t>
+          <t>37,6; 204,65</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>14,46</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,62</t>
+          <t>9,09</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>29,53</t>
+          <t>5,46</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>13,86</t>
+          <t>16,89</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>21,5</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>9,96</t>
+          <t>12,75</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 30,02</t>
+          <t>-18,12; 17,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 21,34</t>
+          <t>-11,05; 31,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>13,38; 45,06</t>
+          <t>-13,75; 24,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 29,73</t>
+          <t>-5,13; 38,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>10,93; 35,46</t>
+          <t>-9,99; 16,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 20,35</t>
+          <t>-2,56; 28,55</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>100,41%</t>
+          <t>-4,94%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>45,99%</t>
+          <t>77,67%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>156,12%</t>
+          <t>29,58%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>73,25%</t>
+          <t>91,47%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>129,75%</t>
+          <t>16,78%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>60,11%</t>
+          <t>84,55%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-9,95; 362,06</t>
+          <t>-84,3; 563,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-34,65; 272,31</t>
+          <t>-60,0; 984,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>47,7; 373,13</t>
+          <t>-55,5; 275,96</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 240,53</t>
+          <t>-22,35; 438,08</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>45,92; 322,16</t>
+          <t>-44,33; 198,71</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 174,21</t>
+          <t>-12,46; 313,1</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>18,16</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7,24</t>
+          <t>10,78</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>25,4</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>16,55</t>
+          <t>18,71</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>21,84</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>11,94</t>
+          <t>14,85</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,78; 24,09</t>
+          <t>-5,55; 6,96</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,8; 12,14</t>
+          <t>2,74; 17,87</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>19,63; 30,35</t>
+          <t>-3,28; 8,29</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11,63; 24,53</t>
+          <t>12,14; 26,26</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>18,11; 25,35</t>
+          <t>-2,74; 5,69</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,58; 16,93</t>
+          <t>10,22; 20,26</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>101,71%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>40,53%</t>
+          <t>62,85%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>125,72%</t>
+          <t>12,98%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>81,95%</t>
+          <t>110,47%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>114,39%</t>
+          <t>9,37%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>62,56%</t>
+          <t>87,16%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,39 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>61,69; 154,43</t>
+          <t>-27,56; 47,53</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>7,63; 77,2</t>
+          <t>13,96; 127,8</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>84,85; 168,27</t>
+          <t>-16,94; 57,13</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>51,46; 130,14</t>
+          <t>61,3; 184,38</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>86,37; 143,9</t>
+          <t>-14,11; 38,3</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>41,09; 94,85</t>
+          <t>55,02; 136,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P38_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P38_R-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -599,467 +608,319 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>3,37</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>9,09</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,67</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>21,82</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>2,46</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>15,76</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>3.067904860340931</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>8.140140127601825</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>2.366639008984564</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>23.45603620470548</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>2.68871944107272</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>16.2616613331007</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-6,45; 13,39</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-4,09; 20,0</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-6,63; 10,08</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>12,4; 31,42</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-4,26; 8,52</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>8,35; 23,2</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-7.499426513002959</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-4.998471849925247</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-5.715024045085729</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>14.42746039245949</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-4.124820013606972</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>8.687991384573881</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>15,9%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>42,95%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>8,34%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>108,93%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>11,99%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>76,68%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>13.43268902323031</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>19.56423502554514</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>10.68482573532913</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>32.98256024066649</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>9.092279434089001</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>23.88286675639286</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-23,81; 82,83</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-11,44; 122,68</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-27,13; 64,96</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>48,88; 195,29</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-17,62; 49,2</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>34,36; 130,82</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.135311735403554</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.359025633856034</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.1248184267813843</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>1.237090036327389</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.1302097159296937</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.7875222198278654</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-1,71</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>13,16</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,84</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>14,76</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,16</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>14,01</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.2614338963147758</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.1738516786577449</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.2621807649432744</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>0.6121155578392041</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.1762301106218375</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.3687616287013144</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-10,6; 7,06</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>2,95; 22,74</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-6,14; 9,42</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>4,87; 29,82</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-5,75; 5,55</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>6,43; 21,66</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.7944489669180178</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>1.126147624464861</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.7290913592398898</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>2.192156175776891</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.5031851790564966</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>1.328555976068257</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-12,24%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>94,29%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>14,25%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>114,47%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>1,18%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>104,7%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-1.017086644003527</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>13.72984443914053</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>2.194608376659263</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>13.78921785594087</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.6370853166305688</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>13.7561369980575</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-57,21; 77,45</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>15,65; 244,16</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-39,39; 99,99</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>22,21; 302,3</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-37,36; 53,52</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>37,6; 204,65</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-8.878881978594398</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>4.19032647852525</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-5.867751110751231</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>4.387236257683195</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-4.74354164158841</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>6.406117390259531</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,58</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>9,09</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>5,46</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>16,89</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>2,53</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>12,75</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>7.088935705389083</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>23.45285291746896</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>9.716198318324286</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>27.28854021510975</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>6.052095384821714</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>20.69297805406362</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-18,12; 17,13</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-11,05; 31,45</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-13,75; 24,64</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-5,13; 38,37</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-9,99; 16,08</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-2,56; 28,55</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.0841003016904474</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>1.13528583459663</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.1773501651947406</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>1.114330962492755</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.05204961640474015</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>1.123870909075024</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-4,94%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>77,67%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>29,58%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>91,47%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>16,78%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>84,55%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.5612020448935545</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>0.2681264997005461</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.3822498294805561</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>0.1986833853758077</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.3354914395118068</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.4353885130064278</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-84,3; 563,18</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-60,0; 984,29</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-55,5; 275,96</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-22,35; 438,08</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-44,33; 198,71</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-12,46; 313,1</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.9953669510315813</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>2.996733699729628</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>1.087761083903348</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>2.851844488719636</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.6434825825343317</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>2.190994320820704</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1067,153 +928,317 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>0,92</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>10,78</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>2,2</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>18,71</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>1,6</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>14,85</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-0.4428781706254617</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>7.843835176156215</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>7.141049417060513</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>18.45025579917868</v>
+      </c>
+      <c r="G16" s="5" t="n">
+        <v>3.461616298388648</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>12.78677250027507</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-5,55; 6,96</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>2,74; 17,87</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-3,28; 8,29</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>12,14; 26,26</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-2,74; 5,69</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>10,22; 20,26</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-18.55351271095248</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-11.61932306648892</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-12.10636698108517</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-3.455538422057137</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <v>-8.52773751332469</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>-2.68364186368093</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>5,37%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>62,85%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>12,98%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>110,47%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>9,37%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>87,16%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>16.65381899414006</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>29.48455842356977</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>27.81730952979362</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>39.85896723581363</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>17.3523204049606</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>29.03932278482518</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-27,56; 47,53</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>13,96; 127,8</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-16,94; 57,13</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>61,3; 184,38</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>-14,11; 38,3</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>55,02; 136,22</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.03767528684455981</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>0.6672686978583359</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.3955630466819338</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>1.022012167924239</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>0.22952969468439</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>0.8478536426330908</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.8427957858786279</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.6158245720689464</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.5321518488461934</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-0.1520220658202408</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-0.4155280801688876</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>-0.1540548518539664</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>5.455226427351733</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>8.443754836180304</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>2.897162963029483</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>4.763762163011339</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>2.151363056859443</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>3.145435633046009</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>0.9454501399440013</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>10.40796359542057</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>2.802244187355876</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>19.21358136615918</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>1.932742599535389</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>14.95296147494298</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-5.28808232221774</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>2.396861659685757</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-2.486970778950148</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>12.90350482446544</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <v>-2.240569155265542</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>10.32661967386767</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>7.016901263579935</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>17.57276505113514</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>8.915495094836693</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>26.72471845291559</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>6.116610852491851</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>20.15640304470764</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.05531234672550163</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.6089045490335417</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.1726400096960177</v>
+      </c>
+      <c r="F25" s="6" t="n">
+        <v>1.183705862720983</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <v>0.1161959036049434</v>
+      </c>
+      <c r="H25" s="6" t="n">
+        <v>0.8989675451705661</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.2691725627324761</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>0.1200151720489369</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.1339881881295672</v>
+      </c>
+      <c r="F26" s="6" t="n">
+        <v>0.6548993533030316</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <v>-0.1225980838561579</v>
+      </c>
+      <c r="H26" s="6" t="n">
+        <v>0.5639633252853948</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.4927883521663775</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>1.252715041726916</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.6293906583871355</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>1.929024889317272</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <v>0.412547162182359</v>
+      </c>
+      <c r="H27" s="6" t="n">
+        <v>1.372533138126049</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1221,14 +1246,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
